--- a/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
@@ -206,7 +206,7 @@
     <t>communicationProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-product}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-product}
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>communicationMode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-mode}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-mode}
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>conversationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/conversation-type}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/conversation-type}
 </t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>communicationCareGap</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-care-gap}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-care-gap}
 </t>
   </si>
   <si>
@@ -252,7 +252,7 @@
     <t>statedReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/stated-reason}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/stated-reason}
 </t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/stated-reason</t>
+    <t>http://alvearie.io/fhir/StructureDefinition/stated-reason</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -336,20 +336,20 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/ValueSet/opt-out-reason</t>
+    <t>http://alvearie.io/fhir/ValueSet/opt-out-reason</t>
   </si>
   <si>
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/effective-period}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/effective-period}
 </t>
   </si>
   <si>
     <t>Effective period for the opt-out</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-opt-out</t>
+    <t>http://alvearie.io/fhir/StructureDefinition/communication-opt-out</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.74609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.48828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="105">
   <si>
     <t>Path</t>
   </si>
@@ -206,14 +206,11 @@
     <t>communicationProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-product}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
 </t>
   </si>
   <si>
-    <t>Applies opt-out for a specific product or use case</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Applies opt-out for a specific product</t>
   </si>
   <si>
     <t>N/A</t>
@@ -222,27 +219,27 @@
     <t>communicationMode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-mode}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-mode}
 </t>
   </si>
   <si>
-    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat).</t>
+    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat)</t>
   </si>
   <si>
     <t>conversationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/conversation-type}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>Applies opt-out for a specific conversation type</t>
   </si>
   <si>
     <t>communicationCareGap</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/communication-care-gap}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
 </t>
   </si>
   <si>
@@ -252,7 +249,7 @@
     <t>statedReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/stated-reason}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/stated-reason}
 </t>
   </si>
   <si>
@@ -313,7 +310,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/StructureDefinition/stated-reason</t>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/stated-reason</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -336,20 +333,20 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/ValueSet/opt-out-reason</t>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-opt-out-reason</t>
   </si>
   <si>
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/effective-period}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/effective-period}
 </t>
   </si>
   <si>
     <t>Effective period for the opt-out</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/StructureDefinition/communication-opt-out</t>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/communication-opt-out</t>
   </si>
 </sst>
 </file>
@@ -517,7 +514,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -531,7 +528,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.48828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.67578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -990,7 +987,7 @@
         <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1056,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1064,7 +1061,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1086,13 +1083,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1166,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1188,13 +1185,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1260,7 +1257,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1268,7 +1265,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1290,13 +1287,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1370,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1392,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1464,12 +1461,12 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1569,7 +1566,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1669,7 +1666,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1769,7 +1766,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1871,7 +1868,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1894,16 +1891,16 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1953,7 +1950,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -1968,12 +1965,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1996,13 +1993,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2053,27 +2050,27 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2096,16 +2093,16 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2113,7 +2110,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>37</v>
@@ -2155,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -2170,12 +2167,12 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2198,13 +2195,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2243,40 +2240,40 @@
         <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ17" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
@@ -2298,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2331,11 +2328,11 @@
         <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>37</v>
@@ -2353,22 +2350,22 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2376,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>37</v>
@@ -2398,13 +2395,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2470,12 +2467,12 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2498,16 +2495,16 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2515,7 +2512,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2557,7 +2554,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -2572,12 +2569,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2600,13 +2597,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2657,22 +2654,22 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ21" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
@@ -504,42 +504,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.30859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.67578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-opt-out.xlsx
@@ -504,42 +504,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.30859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.05859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.9921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
